--- a/avaliacoes01.xlsx
+++ b/avaliacoes01.xlsx
@@ -1,106 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">Avaliador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstenção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gravidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urgência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Média Problema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viabilidade da Solução</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados Esperados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impacto da Solução</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alinhamento Estratégico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abrangência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Média Solução</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Média Final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observação</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+  <si>
+    <t>Avaliador</t>
+  </si>
+  <si>
+    <t>Abstenção</t>
+  </si>
+  <si>
+    <t>Gravidade</t>
+  </si>
+  <si>
+    <t>Urgência</t>
+  </si>
+  <si>
+    <t>Tendência</t>
+  </si>
+  <si>
+    <t>Média Problema</t>
+  </si>
+  <si>
+    <t>Viabilidade da Solução</t>
+  </si>
+  <si>
+    <t>Resultados Esperados</t>
+  </si>
+  <si>
+    <t>Impacto da Solução</t>
+  </si>
+  <si>
+    <t>Alinhamento Estratégico</t>
+  </si>
+  <si>
+    <t>Abrangência</t>
+  </si>
+  <si>
+    <t>Média Solução</t>
+  </si>
+  <si>
+    <t>Média Final</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>Leonardo Briza</t>
+  </si>
+  <si>
+    <t>Marcelo Gallo</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>O escopo do projeto está muito bem definido no documento de requisitos (que já está sob análise de Sistemas), aguardando apenas uma aprovação formal para ser colocado na fila de prioridades. Apesar de ter certa complexidade na implementação e abranger um produto menos procurado (Aprendiz Empregador), a solução está bem desenhada e justificada, abordando uma dor que resvala em muitos aspectos estratégicos chave: 1) automatização de processos com liberação de mão de obra, 2) redução de prazos de retorno ao cliente e formalização de parceria, 3) maior transparência e assertividade no fluxo de informações oficiais (com redução do risco de questionamentos e interpretações equivocadas) e 4) melhoria da experiência do cliente. Ou seja, traz resultados financeiros, de eficiência e melhoria de processos, atualização tecnológica e fortalecimento da marca através da satisfação do cliente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,103 +100,82 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -216,152 +183,255 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
+                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,13 +475,92 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3.2</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>4.5</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>3.5</v>
+      </c>
+      <c r="L2">
+        <v>3.9</v>
+      </c>
+      <c r="M2">
+        <v>3.55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>2.5</v>
+      </c>
+      <c r="D3">
+        <v>2.5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>2.6</v>
+      </c>
+      <c r="G3">
+        <v>4.5</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>4.5</v>
+      </c>
+      <c r="J3">
+        <v>4.5</v>
+      </c>
+      <c r="K3">
+        <v>3.5</v>
+      </c>
+      <c r="L3">
+        <v>4.25</v>
+      </c>
+      <c r="M3">
+        <v>3.425</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>